--- a/src/resource/待整理的案例.xlsx
+++ b/src/resource/待整理的案例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\清华大学\计算法学项目\项目15\裁判规则库和旧类案工程文件\apollo-law-project\src\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B1FFE-80CB-45C1-8087-27DF9ACF56D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E99B3-45C8-4D7C-B55C-453FA9CA174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="case_outer_link" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'case_outer_link'!$A$1:$C$335</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'case_outer_link'!$A$1:$C$257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
   <si>
     <t>Column1</t>
   </si>
@@ -56,24 +56,12 @@
     <t>https://www.pkulaw.com/pfnl/1970324906541435.html</t>
   </si>
   <si>
-    <t>辽宁省沈阳市中级人民法院（2017）辽01民终字第266号</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>王兰与李石民间借款纠纷案</t>
-  </si>
-  <si>
     <t>福建省安溪县法院（2015）安民初字第1941号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f36a4b5ec1451d6f61e107d8bbf22c51c8bdfb.html?keyword=%EF%BC%882015%EF%BC%89%E5%AE%89%E6%B0%91%E5%88%9D%E5%AD%97%E7%AC%AC1941%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>原告王兰与被告李石民间借贷纠纷案</t>
-  </si>
-  <si>
     <t>浙江省高级人民法院（2008）民二终字第139号</t>
   </si>
   <si>
@@ -236,21 +224,12 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3f15e33e303a5f99b3ef09208038929a6bdfb.html?keyword=%EF%BC%882010%EF%BC%89%E6%B5%99%E5%95%86%E6%8F%90%E5%AD%97%E7%AC%AC33%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>浙江省台州市中级人民法院（2010）浙台商终字第91号</t>
-  </si>
-  <si>
-    <t>温州市中级人民法院（2012）浙温商终字第1089号</t>
-  </si>
-  <si>
     <t>（2015）威经技区民初字第1652号</t>
   </si>
   <si>
     <t>http://www.pkulaw.cn/case/pfnl_a6bdb3332ec0adc455a969ee08078d47c69dcf2d61f0e83cbdfb.html?keywords=%EF%BC%882015%EF%BC%89%E5%A8%81%E7%BB%8F%E6%8A%80%E5%8C%BA%E6%B0%91%E5%88%9D%E5%AD%97%E7%AC%AC1652%E5%8F%B7&amp;match=Exact</t>
   </si>
   <si>
-    <t>陕西省高院（2016）</t>
-  </si>
-  <si>
     <t>（2019）浙05民终1498号</t>
   </si>
   <si>
@@ -287,9 +266,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4ce346e6eed61420f7b032eec3cb86843bdfb.html?keyword=%EF%BC%882017%EF%BC%89%E6%9C%80%E9%AB%98%E6%B3%95%E6%B0%91%E5%86%8D96%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>最高人民法院（2016）最高法民终字第541号</t>
-  </si>
-  <si>
     <t>最高人民法院（2016）最高法民终286号</t>
   </si>
   <si>
@@ -308,12 +284,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4f312eec0b2d22e87f9236051885d0d91bdfb.html?keyword=%EF%BC%882018%EF%BC%89%E6%9C%80%E9%AB%98%E6%B3%95%E6%B0%91%E5%86%8D373%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>（2013）浙海终字第36条</t>
-  </si>
-  <si>
-    <t>福建省厦门市中级人民法院（2011）厦民初字第71号</t>
-  </si>
-  <si>
     <t>最高人民法院（2015）民一终字第180号</t>
   </si>
   <si>
@@ -332,78 +302,42 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f36f263d13fa3a2063574617633460579bbdfb.html</t>
   </si>
   <si>
-    <t>温州市鹿城区人民法院（2012）温鹿民初字第35号</t>
-  </si>
-  <si>
     <t>湖南省益阳市资阳区人民法院（2009）资民一初字第12号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f360cbd034811147dffbfa70d3dbe9e94fbdfb.html?keyword=%EF%BC%882009%EF%BC%89%E8%B5%84%E6%B0%91%E4%B8%80%E5%88%9D%E5%AD%97%E7%AC%AC12%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>河南省高级人民法院（2012）豫法民三终字第26号</t>
-  </si>
-  <si>
-    <t>参见韩政“是民间借贷还是商品房买卖”，载最高人民法院民事审判第一庭编：《民事审判指导与参考・指导性案例》2014年第2辑</t>
-  </si>
-  <si>
     <t>江苏省邳州市中级人民法院（2009）邳民一初字第1077号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3fa69926ca011083027fddb38297647a9bdfb.html?keyword=%EF%BC%882009%EF%BC%89%E9%82%B3%E6%B0%91%E4%B8%80%E5%88%9D%E5%AD%97%E7%AC%AC1077%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>最高人民法院（2011）民提字第344号</t>
-  </si>
-  <si>
     <t>（2021）京03民终1069号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/c05aeed05a57db0aed7e40450b786e3f183787f870e49e83bdfb.html?keyword=%EF%BC%882021%EF%BC%89%E4%BA%AC03%E6%B0%91%E7%BB%881069%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>未找到相关判例</t>
-  </si>
-  <si>
     <t>北京市第一中级人民法院（2005）一中民抗字第07501号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3921d0760027aaf7dc630da43303ac055bdfb.html?keyword=%EF%BC%882005%EF%BC%89%E4%B8%80%E4%B8%AD%E6%B0%91%E6%8A%97%E5%AD%97%E7%AC%AC07501%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>四川省资阳市中级人民法院（2016）川20民终字第538号</t>
-  </si>
-  <si>
-    <t>（2013）厦民终字第661号</t>
-  </si>
-  <si>
-    <t>（2013）厦民终字第662号</t>
-  </si>
-  <si>
-    <t>湖南省长沙市中级人民法院（2012）长中民再重终字第0321号</t>
-  </si>
-  <si>
     <t>重庆市第一中级人民法院（原四川省重庆市中级人民法院）（2006）渝一中民终字第1722号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f30cd7429e46ec243eda2e6ca4f34a3c3abdfb.html?keyword=%EF%BC%882006%EF%BC%89%E6%B8%9D%E4%B8%80%E4%B8%AD%E6%B0%91%E7%BB%88%E5%AD%97%E7%AC%AC1722%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>（2011）海民初字第1508号</t>
-  </si>
-  <si>
     <t>浙江省浦江县人民法院浙浦法（1991）民字第11号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3327bcd4a38e54cc2b9300ca2d3047484bdfb.html</t>
   </si>
   <si>
-    <t>北京市第三中院（2021）京03民终7035号</t>
-  </si>
-  <si>
-    <t>北京市第三中院（2021）京03民终4721号</t>
-  </si>
-  <si>
     <t>山西省高级人民法院（2020）晋民申2755号</t>
   </si>
   <si>
@@ -458,9 +392,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3ee877f2777dcaf71e42154f36ad56d77bdfb.html?tiao=1&amp;keyword=%EF%BC%882014%EF%BC%89%E9%95%BF%E4%B8%AD%E6%B0%91%E4%BA%8C%E7%BB%88%E5%AD%9706180%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省温州市中级人民法院（2012）浙温商终字第1517号</t>
-  </si>
-  <si>
     <t>新疆维吾尔自治区乌鲁木齐中级人民法院（2014）乌中民一终字第1600号</t>
   </si>
   <si>
@@ -473,9 +404,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f32d3facef4ff2b669d72aa150325ced5ebdfb.html?keyword=%EF%BC%882015%EF%BC%89%E7%94%AC%E6%85%88%E6%B5%92%E6%B0%91%E5%88%9D%E5%AD%97%E7%AC%AC731%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省余姚市人民法院（2103）甬余低商初字第270号</t>
-  </si>
-  <si>
     <t>最高人民法院（2016）最高法民再字第348号</t>
   </si>
   <si>
@@ -494,9 +422,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4a50b2dfd9a066001e6f281e766d2c061bdfb.html?keyword=%EF%BC%882013%EF%BC%89%E5%8E%A6%E6%B0%91%E8%AE%A4%E5%AD%97%E7%AC%AC14%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省台州市中级人民法院（2010）浙台商终字第450号</t>
-  </si>
-  <si>
     <t>四川省高院（2017）川06民终1359号</t>
   </si>
   <si>
@@ -515,9 +440,6 @@
     <t>http://gongbao.court.gov.cn/QueryArticle.html?title=&amp;content=&amp;document_number=&amp;serial_no=-1&amp;year=2011&amp;number=11</t>
   </si>
   <si>
-    <t>最高人民法院（2017）最高法民申6号</t>
-  </si>
-  <si>
     <t>江苏省高级人民法院（2014）苏商终字第0236号</t>
   </si>
   <si>
@@ -578,12 +500,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=55b6ce0ae59e47328454c185929c7735</t>
   </si>
   <si>
-    <t>2021京0102民初11006号</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>福建省永春县人民法院（1999）永民初字第258号</t>
   </si>
   <si>
@@ -608,9 +524,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f35d5aafba5db41841b0367231a4679595bdfb.html?keyword=%EF%BC%881992%EF%BC%89%E5%AE%9D%E6%B3%95%E6%B0%91%E5%AD%97%E7%AC%AC1308%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省宁波市中级人民法院（2011）浙用商终字第10号</t>
-  </si>
-  <si>
     <t>（2015）鄂荆州中民再上终字第00001号刑事判决</t>
   </si>
   <si>
@@ -635,18 +548,12 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=6edc29d0115a485db792abe9000dbe49</t>
   </si>
   <si>
-    <t>安徽省阜阳市中级人民法院（2015）阜民一终字00777号</t>
-  </si>
-  <si>
     <t>（2008）温民二终字第211号</t>
   </si>
   <si>
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=a95916c1108c4660b9d8acfa00eeb5eb</t>
   </si>
   <si>
-    <t>北京市大兴区人民法院</t>
-  </si>
-  <si>
     <t>吉林省高级人民法院（2015）吉民一终字第43号</t>
   </si>
   <si>
@@ -665,12 +572,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=f73c1e3bb599423290f350e60114aa8a</t>
   </si>
   <si>
-    <t>徐州市中院（2013）徐民终字第293号/山东省青岛市中级人民法院（2014）青民二终字第203号</t>
-  </si>
-  <si>
-    <t>无/https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=fc343306db4c47d38fc01e53bf25aa3b</t>
-  </si>
-  <si>
     <t>江苏省高级人民法（2015）苏商终字第00354号</t>
   </si>
   <si>
@@ -683,9 +584,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=cb923d93373a45969053ac100097e6a0</t>
   </si>
   <si>
-    <t>浙江省高级人民法院（2010）浙商提字第3号</t>
-  </si>
-  <si>
     <t>上海市第二中级人民法院（2008）沪二中民一（民）终字第1018号</t>
   </si>
   <si>
@@ -704,18 +602,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f39017a9f330ba523c139249c31206d5e6bdfb.html?keyword=%EF%BC%882008%EF%BC%89%E7%94%AC%E4%BB%91%E6%B0%91%E4%BA%8C%E5%88%9D%E5%AD%97%E7%AC%AC1475%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省温州市中级人民法院浙温商终字第1072号</t>
-  </si>
-  <si>
-    <t>无具体年份，无法检索</t>
-  </si>
-  <si>
-    <t>江西省赣州市中级人民法院（2016）赣07民终字第3083号</t>
-  </si>
-  <si>
-    <t>湖北省高级人民法院（2016）鄂民终字第990号</t>
-  </si>
-  <si>
     <t>（2020）黑08民终122号</t>
   </si>
   <si>
@@ -734,9 +620,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3a433b28fb87deac64ba1373497fd2809bdfb.html?keyword=%EF%BC%882010%EF%BC%89%E6%B5%99%E5%8F%B0%E5%95%86%E7%BB%88%E5%AD%97%E7%AC%AC613%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>温州市中级人民法院（2012）浙温商终字第1309号</t>
-  </si>
-  <si>
     <t>北京市第一中级人民法院（2019）京01民终1248号</t>
   </si>
   <si>
@@ -779,27 +662,18 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f34f38524c2c7c62c2f8693f382348d709bdfb.html?keyword=%EF%BC%882012%EF%BC%89%E6%B8%A9%E8%8B%8D%E5%95%86%E5%88%9D%E5%AD%97%E7%AC%AC1165%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>温州市中级人民法院（2012）浙温商外终字第5号</t>
-  </si>
-  <si>
     <t>湖北省高院（2013）鄂监二抗再终字第9号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3b09affe6cde40f02f1d599800fb5ba07bdfb.html?keyword=%EF%BC%882013%EF%BC%89%E9%84%82%E7%9B%91%E4%BA%8C%E6%8A%97%E5%86%8D%E7%BB%88%E5%AD%97%E7%AC%AC9%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>瑞安市人民法院（2012）温瑞陶商初字第307号</t>
-  </si>
-  <si>
     <t>浙江省台州市中级人民法院（2010）浙台商终字443号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3b8e3189a69b59d57c9428962cd9e00e0bdfb.html?keyword=%EF%BC%882010%EF%BC%89%E6%B5%99%E5%8F%B0%E5%95%86%E7%BB%88%E5%AD%97443%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>福建省三明市中级人民法院（2016）闽04民终字第722号</t>
-  </si>
-  <si>
     <t>广东省汕头市中级人民法院（2011）汕中法民二终字第62号</t>
   </si>
   <si>
@@ -812,18 +686,12 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f32f7e2bcd981771282d3e6a0982f8ce00bdfb.html?keyword=%EF%BC%882012%EF%BC%89%E6%B5%99%E7%94%AC%E5%95%86%E7%BB%88%E5%AD%97%E7%AC%AC457%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>此案例不涉及诉讼，源于有关公证机构资料。</t>
-  </si>
-  <si>
     <t>（2020）沪02民终7629号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc407f15a6fd307573f33c1c06a7d1142b1bdfb.html?keyword=%EF%BC%882020%EF%BC%89%E6%B2%AA02%E6%B0%91%E7%BB%887629%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>（2010）浙杭商终字第1296号</t>
-  </si>
-  <si>
     <t>浙江省台州市中级人民法院（2010）浙台商终字第23号</t>
   </si>
   <si>
@@ -836,21 +704,12 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f322150b82e1db56997206d1639c1586c7bdfb.html?keyword=%EF%BC%882014%EF%BC%89%E6%BB%81%E6%B0%91%E7%BB%88%E5%AD%97%E7%AC%AC00301%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>浙江省宁波市中级人民法院（2011）浙甬商提字第613号</t>
-  </si>
-  <si>
     <t>漳州市中院（2017）闽06民终2078号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f39be5d3700fdc619b8db585fd3c30fa2abdfb.html?keyword=%EF%BC%882017%EF%BC%89%E9%97%BD06%E6%B0%91%E7%BB%882078%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>厦门市中院（2012）厦民终字第3095号</t>
-  </si>
-  <si>
-    <t>广东省珠海市香洲区人民法院（2005）珠香法民一初字第926号</t>
-  </si>
-  <si>
     <t>（2010）浙海终字第63号</t>
   </si>
   <si>
@@ -917,9 +776,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f327c18941087e2e420932de5d41502910bdfb.html?keyword=%EF%BC%882009%EF%BC%89%E9%AB%98%E6%B0%91%E7%BB%88%E5%AD%97%E7%AC%AC1205%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>最高人民法院审判监督庭编：《审判监督指导》2006年第2辑（总第20辑）。</t>
-  </si>
-  <si>
     <t>山东省德州市中级人民法院（2014）德民终字第1042号</t>
   </si>
   <si>
@@ -1034,15 +890,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=c191c51b9bce491c8399aa7c00962be8</t>
   </si>
   <si>
-    <t>最高人民法院（2012）民一终字第119号</t>
-  </si>
-  <si>
-    <t>（2013）徐民终字第0230号</t>
-  </si>
-  <si>
-    <t>（2010）佛禅法民二初字第776号</t>
-  </si>
-  <si>
     <t>江苏省徐州市中级人民法院（2014）徐民终字第1867号</t>
   </si>
   <si>
@@ -1067,9 +914,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=271ec2b4519f4c528e92bbaae3662119</t>
   </si>
   <si>
-    <t>江苏省高淳县人民法院（2013）高民初字第508号</t>
-  </si>
-  <si>
     <t>上海市高级人民法院（2017）沪民初24号</t>
   </si>
   <si>
@@ -1088,12 +932,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=026821e8d3964d4993d6a89400c07c30</t>
   </si>
   <si>
-    <t>（2013）渝二中法民终字第00518号</t>
-  </si>
-  <si>
-    <t>最高院（2007）民二终字第25号</t>
-  </si>
-  <si>
     <t>北京市第一中级人民法院（2019）京01民终4400号</t>
   </si>
   <si>
@@ -1106,9 +944,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=49e9cd481e1b465ab219ac2400087fde</t>
   </si>
   <si>
-    <t>（2013）夏民终字第546号</t>
-  </si>
-  <si>
     <t>浙江省温州市中级人民法院（2011）浙温商终字第843号</t>
   </si>
   <si>
@@ -1139,9 +974,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4e30c1190f83036cf6d473f88316957d8bdfb.html?keyword=%EF%BC%882019%EF%BC%89%E6%B5%9901%E6%B0%91%E7%BB%889943%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>湖南省株洲市中级人民法院（2014）洙中法民一终字第362号</t>
-  </si>
-  <si>
     <t>重庆市渝中区人民法院（2016）渝0103民初12007号</t>
   </si>
   <si>
@@ -1250,9 +1082,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc43a1c4c2c0a76bedb975eb7ff90c985b9bdfb.html?keyword=%EF%BC%882020%EF%BC%89%E6%9C%80%E9%AB%98%E6%B3%95%E6%B0%91%E7%94%B32545%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>江苏省泰州市中级人民法院（2016）苏12执复字第7号</t>
-  </si>
-  <si>
     <t>北京市大兴区人民法院（2019）京0115民初22997号</t>
   </si>
   <si>
@@ -1265,12 +1094,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc449315dcd075f29f5a0d9446304505180bdfb.html?keyword=%EF%BC%882019%EF%BC%89%E6%B5%9902%E6%B0%91%E7%BB%885159%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>浙江省高级人民法院（2016）浙民终字第597号</t>
-  </si>
-  <si>
-    <t>最高人民法院（2017）最高法民申字第25号</t>
-  </si>
-  <si>
     <t>最高人民法院（2010）民提字第87号</t>
   </si>
   <si>
@@ -1283,30 +1106,18 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f378023e07a006169b5a902a62c8dad8d1bdfb.html?keyword=%EF%BC%882015%EF%BC%89%E6%B5%B7%E5%8D%97%E4%B8%80%E4%B8%AD%E6%B0%91%E4%B8%80%E7%BB%88%E5%AD%97%E7%AC%AC692%E5%8F%B7#anchor-documentno</t>
   </si>
   <si>
-    <t>（2021）川1381民初2125号</t>
-  </si>
-  <si>
     <t>上海市第二中级人民法院（2020）沪02民终1871号</t>
   </si>
   <si>
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=3f0cb60c843d4a7dbe1fac2f00fc2660</t>
   </si>
   <si>
-    <t>江苏省铜山区人民法院（2015）铜尚特字第00001号</t>
-  </si>
-  <si>
-    <t>暂无</t>
-  </si>
-  <si>
     <t>（2020）湘1126民初3022号</t>
   </si>
   <si>
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=9d9a7a060e25473a9194acdd01538e62</t>
   </si>
   <si>
-    <t>辽宁省大连市中级人民法院（2013）大民一初字第87号</t>
-  </si>
-  <si>
     <t>北京市第一中级人民法院（2019）京01民终2756号</t>
   </si>
   <si>
@@ -1349,24 +1160,12 @@
     <t>http://www.pkulaw.cn/case/pfnl_a25051f3312b07f352e30c51e717fe3db33f923b4c24dce2bdfb.html?keywords=%EF%BC%882013%EF%BC%89%E9%97%BD%E6%B0%91%E7%BB%88%E5%AD%97%E7%AC%AC870%E5%8F%B7&amp;match=Exact</t>
   </si>
   <si>
-    <t>重庆市高级人民法院（2016）渝民终字第329号</t>
-  </si>
-  <si>
-    <t>厦门市中院（2013）厦民终字第2298号</t>
-  </si>
-  <si>
     <t>北京市第三中级人民法院（2018）京03民终12990号</t>
   </si>
   <si>
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=217f301118dd408c922aa9b600ad9bcd</t>
   </si>
   <si>
-    <t>（2011）佛南法民一初字第3841号</t>
-  </si>
-  <si>
-    <t>浙江省瑞安市人民法院（2011）温瑞塘初字第492号</t>
-  </si>
-  <si>
     <t>上海市第二中级人民法院（2020）沪02民终7013号</t>
   </si>
   <si>
@@ -1421,9 +1220,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=d7acb85c5e574c48b83aab4c000bb52f</t>
   </si>
   <si>
-    <t>王福友：《民间借贷纠纷裁判规则与适用标准》，法律出版社2015年出版</t>
-  </si>
-  <si>
     <t>北京市第一中级人民法院（2020）京01民终3507号</t>
   </si>
   <si>
@@ -1508,9 +1304,6 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4040eff4ef7140ddc76808da60fbaaa6dbdfb.html?keyword=%EF%BC%882018%EF%BC%89%E4%BA%AC03%E6%B0%91%E7%BB%886718%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>北京市高院（2009）高民终字第507号</t>
-  </si>
-  <si>
     <t>最高人民法院（2019）最高法民再220号</t>
   </si>
   <si>
@@ -1529,18 +1322,12 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4bb5e0eb98be55eecd0817875e036548cbdfb.html?keyword=%EF%BC%882019%EF%BC%89%E6%B5%9902%E6%B0%91%E7%BB%883693%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>最高人民法院（2013）民提字第135号</t>
-  </si>
-  <si>
     <t>浙江省宁波市中级人民法院（2019）浙02民终4719号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc46649d7bf30f403ffef4214776652884fbdfb.html?keyword=%EF%BC%882019%EF%BC%89%E6%B5%9902%E6%B0%91%E7%BB%884719%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>最高人民法院（2013）民四终字第33号</t>
-  </si>
-  <si>
     <t>（2009）二中民一终字2241号（无文书），北京市海淀区人民法院（2005）海民初字第4670号</t>
   </si>
   <si>
@@ -1553,12 +1340,6 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f33e66a4b477e63fe8d6dbc17c6026ac68bdfb.html?keyword=%EF%BC%882009%EF%BC%89%E6%B7%B1%E4%B8%AD%E6%B3%95%E6%B0%91%E4%B8%80%E5%88%9D%E5%AD%97%E7%AC%AC942%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>安徽省滁州市中級人民法院（2015）滁民终字第00981号</t>
-  </si>
-  <si>
-    <t>（2013）一中民终字第11805号</t>
-  </si>
-  <si>
     <t>广东省广州市中级人民法院（2010）穗中法审监民抗再字第21号</t>
   </si>
   <si>
@@ -1571,21 +1352,12 @@
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f369339a2bb949e237690bcb757dc273d1bdfb.html?keyword=%EF%BC%882011%EF%BC%89%E4%BA%8C%E4%B8%AD%E6%B0%91%E5%AD%97%E7%AC%AC16027%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>（2005）民一终字第104号</t>
-  </si>
-  <si>
     <t>《最高院关于“确认合同无效之诉”不适用诉讼时效的最新公报案例》</t>
   </si>
   <si>
     <t>http://www.ft22.com/wap/content.asp?id=4867&amp;lid=153</t>
   </si>
   <si>
-    <t>（2005）民一终字第105号</t>
-  </si>
-  <si>
-    <t>黑龙江省杜尔伯特蒙古族自治县法院网：合同被撤销，返还财产、赔偿损失请求权的诉讼时效期间如何计算</t>
-  </si>
-  <si>
     <t>（2019）京03民终3751号</t>
   </si>
   <si>
@@ -1604,33 +1376,21 @@
     <t>https://www.pkulaw.com/pfnl/a6bdb3332ec0adc4b55f3d0cdc9f95e9cbf5681d6683ef48bdfb.html?keyword=%EF%BC%882018%EF%BC%89%E4%BA%AC01%E6%B0%91%E7%BB%883046%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>（2015）黔高民商终字第8号</t>
-  </si>
-  <si>
     <t>（2015）沪知民终字第6号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3dd2207eb7fc39685dfbd8137796978f1bdfb.html?keyword=%EF%BC%882015%EF%BC%89%E6%B2%AA%E7%9F%A5%E6%B0%91%E7%BB%88%E5%AD%97%E7%AC%AC6%E5%8F%B7%20</t>
   </si>
   <si>
-    <t>（2017）黔民终366号</t>
-  </si>
-  <si>
     <t>（2009）浙商终字第291号</t>
   </si>
   <si>
-    <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3352cf6227e16181f41ae1a46db8bc407bdfb.html?keyword=%EF%BC%882009%EF%BC%89%E6%B5%99%E5%95%86%E7%BB%88%E5%AD%97%E7%AC%AC291%E5%8F%B7%20</t>
-  </si>
-  <si>
     <t>（2014）粤高法民二终字第35号</t>
   </si>
   <si>
     <t>https://www.pkulaw.com/pfnl/a25051f3312b07f33cc7c908e11564f6dc73d62673f40727bdfb.html?keyword=%EF%BC%882014%EF%BC%89%E7%B2%A4%E9%AB%98%E6%B3%95%E6%B0%91%E4%BA%8C%E7%BB%88%E5%AD%97%E7%AC%AC35%E5%8F%B7</t>
   </si>
   <si>
-    <t>（2021）京02民终1647号</t>
-  </si>
-  <si>
     <t>（2020）豫01民终6013号</t>
   </si>
   <si>
@@ -1655,9 +1415,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=6929a4937f1448e896a5abd1009b3874</t>
   </si>
   <si>
-    <t>（2015）民二终字第324号</t>
-  </si>
-  <si>
     <t>（2018）京01民终7992号</t>
   </si>
   <si>
@@ -1676,9 +1433,6 @@
     <t>http://www.pkulaw.cn/case/payz_121138247.html?match=Exact</t>
   </si>
   <si>
-    <t>（2011）穗增法民二再初字第1号</t>
-  </si>
-  <si>
     <t>《人民法院报》2015年11月16日第1版</t>
   </si>
   <si>
@@ -1697,9 +1451,6 @@
     <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=c9ea1775b41942758941ab97000cb7c5</t>
   </si>
   <si>
-    <t>（2008）温民二初字第407-1号</t>
-  </si>
-  <si>
     <t>（2021）湘01民辖终571号（没有相关判决书，只检索到了裁定书）</t>
   </si>
   <si>
@@ -1710,12 +1461,6 @@
   </si>
   <si>
     <t>https://www.doc88.com/p-1876311677664.html?r=1</t>
-  </si>
-  <si>
-    <t>徐某与刘某借款纠纷上诉案（审判指导参考）</t>
-  </si>
-  <si>
-    <t>无锡市中院（2007）锡民再终字第17号</t>
   </si>
   <si>
     <t>大连市中院（2018）辽02民终951号</t>
@@ -1828,6 +1573,18 @@
   </si>
   <si>
     <t>北京市昌平区法院（2008）昌民初字第9285号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pkulaw.com/pfnl/a25051f3312b07f3352cf6227e16181f41ae1a46db8bc407bdfb.html?keyword=%EF%BC%882009%EF%BC%89%E6%B5%99%E5%95%86%E7%BB%88%E5%AD%97%E7%AC%AC291%E5%8F%B7%20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省青岛市中级人民法院（2014）青民二终字第203号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wenshu.court.gov.cn/website/wenshu/181107ANFZ0BXSK4/index.html?docId=fc343306db4c47d38fc01e53bf25aa3b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,8 +1679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B19E60A-110C-4DE2-A0A3-8FE78590EC61}" name="case_outer_link" displayName="case_outer_link" ref="A1:C335" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C335" xr:uid="{4B19E60A-110C-4DE2-A0A3-8FE78590EC61}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B19E60A-110C-4DE2-A0A3-8FE78590EC61}" name="case_outer_link" displayName="case_outer_link" ref="A1:C257" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C257" xr:uid="{4B19E60A-110C-4DE2-A0A3-8FE78590EC61}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B11CC1A5-25C0-4524-BBAD-BB3AF90A6CA0}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{BD8A0F40-FB38-48A5-8D65-C6C9900D92F8}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="1"/>
@@ -2196,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392699EE-9917-4B26-A4D0-2E7625E5A1CD}">
-  <dimension ref="A1:C335"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2221,10 +1978,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>596</v>
+        <v>511</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2232,7 +1989,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2243,7 +2000,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2254,3651 +2011,2798 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>513</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123" s="1" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>7</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>7</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>7</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>7</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>7</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>403</v>
+        <v>448</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>436</v>
+        <v>485</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>255</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>256</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>257</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>258</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>259</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>260</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>261</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>262</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>263</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>264</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>265</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>266</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>267</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>268</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>269</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>270</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>271</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>272</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>273</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>274</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>275</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>276</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>277</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>278</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>279</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>280</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>281</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>282</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>283</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>284</v>
-      </c>
-      <c r="B287" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>285</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>286</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>287</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>288</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>289</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>290</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>291</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>292</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>293</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>294</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>295</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>296</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>297</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>298</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>299</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>300</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>301</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>302</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>303</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>304</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>305</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>306</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>307</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>308</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>309</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>310</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>311</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>312</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>313</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>314</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>315</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>316</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>317</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>318</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>319</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>320</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>321</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>322</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>323</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>324</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>325</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>326</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>327</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>328</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>329</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>330</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>331</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>332</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C323" r:id="rId1" xr:uid="{3D751FAA-F764-4B5C-9AEC-41A9E5BA7DC0}"/>
+    <hyperlink ref="C245" r:id="rId1" xr:uid="{3D751FAA-F764-4B5C-9AEC-41A9E5BA7DC0}"/>
+    <hyperlink ref="C226" r:id="rId2" xr:uid="{7FD92CBD-6299-4A7B-A6F1-82FCEDEF8D7F}"/>
+    <hyperlink ref="C92" r:id="rId3" xr:uid="{98B3F836-CFCA-4CC3-9CF6-E57061FAB1C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
